--- a/Data Files/polizas.xlsx
+++ b/Data Files/polizas.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JRobertoMV\Katalon Studio\Poyectos Banorte\APF_APIS_SF_MulesoftV2\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitBanorte\APF_APIS_SF_MulesoftV2\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1745B1F7-15DA-4AB0-AAFC-16CB2BE599D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{F4F684F2-F92E-44C3-9530-C032232CFA73}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B9A7B831-49A5-4FF0-A1BE-33F08CD1AD12}"/>
+    <workbookView windowHeight="10300" windowWidth="19420" xWindow="-110" xr2:uid="{B9A7B831-49A5-4FF0-A1BE-33F08CD1AD12}" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="Vida" sheetId="1" r:id="rId1"/>
-    <sheet name="CAHA" sheetId="2" r:id="rId2"/>
-    <sheet name="Auto" sheetId="3" r:id="rId3"/>
-    <sheet name="VidaUrlKit" sheetId="4" r:id="rId4"/>
-    <sheet name="CAHAUrlKit" sheetId="5" r:id="rId5"/>
-    <sheet name="AutoUrlKit" sheetId="6" r:id="rId6"/>
+    <sheet name="Vida" r:id="rId1" sheetId="1"/>
+    <sheet name="CAHA" r:id="rId2" sheetId="2"/>
+    <sheet name="Auto" r:id="rId3" sheetId="3"/>
+    <sheet name="VidaUrlKit" r:id="rId4" sheetId="4"/>
+    <sheet name="CAHAUrlKit" r:id="rId5" sheetId="5"/>
+    <sheet name="AutoUrlKit" r:id="rId6" sheetId="6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="737">
   <si>
     <t>numPoliza</t>
   </si>
@@ -14333,11 +14333,2112 @@
   <si>
     <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000000VDV/n_wyGyiCtsM.v7Ja4YRou0DqVd0RHfiBq3N0Wmn5SfQ</t>
   </si>
+  <si>
+    <t>1701873</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000000Vv3/NwyTmEGW32_pZSh68296dh7HN1L84lx4l96ahbIYu_M</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "RXBE840506MDFSRR01",
+        "FirstName": "ERIKA PAOLA",
+        "LastName": "ROSAS BRAVO",
+        "RFC": "ROBE840506H93",
+        "PhoneNumber": "5519875874",
+        "Email": "jrmendozav@desarrollo-ultrasist.com.mx",
+        "BirthDate": "1984-05-06"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Chapultepec",
+            "ExternalNumber": "300",
+            "InternalNumber": "2",
+            "City": "Álvaro Obregon",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "8 de Agosto",
+            "PostalCode": "01180"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1998-04-19",
+                "FirstName": "Francisco",
+                "email": "francisco12@gmail.com",
+                "KinshipExternalCode": "0003",
+                "LastName": "Hernández García",
+                "Percentage": "100",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "MARIO",
+                    "ExternalNumber": "12-D",
+                    "InternalNumber": "11-c",
+                    "City": "CIUDAD DE MEXICO",
+                    "Country": "MEXICO",
+                    "State": "MEXICO",
+                    "Town": "IZTAPALAPA",
+                    "PostalCode": "09690"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF3_ROOT",
+            "StartDate": "2024-07-19",
+            "EndDate": "2025-07-19",
+            "Amount": 26089.8,
+            "total": 26089.8,
+            "taxAmount": 0,
+            "priceWithExpense": 26089.8,
+            "expense": 0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 26089.8
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 750.0,
+                "insuredAmount": 1500000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 1299.0,
+                "insuredAmount": 150000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 4111.8,
+                "insuredAmount": 7500,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 5775.0,
+                "insuredAmount": 1500000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 12195.0,
+                "insuredAmount": 1500000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 1959.0,
+                "insuredAmount": 300000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "245",
+        "FirstName": "ERIKA PAOLA",
+        "LastName": "ROSAS BRAVO",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "03",
+        "Amount": 26089.8,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "653412351234125000",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1701874</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000000Vwf/mUO6UB8zKdFzKJ3tV8TNHvA5Fos8P.Zi4b6D9QC1T1o</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "MERS860813MHGNDC04",
+        "FirstName": "SOCORRO MONSERRAT",
+        "LastName": "MENESES RODRIGUEZ",
+        "RFC": "MERS860813BF9",
+        "PhoneNumber": "5578494525",
+        "Email": "jrmendozav@desarrollo-ultrasist.com.mx",
+        "BirthDate": "1970-04-30"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Insurgentes",
+            "ExternalNumber": "452",
+            "InternalNumber": "A-8",
+            "City": "San Nicolás de los Garza",
+            "Country": "México",
+            "State": "Nuevo León",
+            "Town": "El Agarron",
+            "PostalCode": "66488"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1988-08-11",
+                "FirstName": "Mateo",
+                "email": "mateo23@gmail.com",
+                "KinshipExternalCode": "0012",
+                "LastName": "López Pérez",
+                "Percentage": "50",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "Insurgentes",
+                    "ExternalNumber": "452",
+                    "InternalNumber": "A-8",
+                    "City": "San Nicolás de los Garza",
+                    "Country": "México",
+                    "State": "Nuevo León",
+                    "Town": "El Agarron",
+                    "PostalCode": "66488"
+                }
+            },
+            {
+                "BirthDate": "1998-05-14",
+                "FirstName": "Carlos",
+                "email": "carlos@gmail.com",
+                "KinshipExternalCode": "0006",
+                "LastName": "RODRÍGUEZ SÁNCHEZ",
+                "Percentage": "50",
+                "NumBen": "2",
+                "Address": {
+                    "Street": "Hidalgo",
+                    "ExternalNumber": "568",
+                    "InternalNumber": "6",
+                    "City": "GUADALAJARA",
+                    "Country": "MEXCO",
+                    "State": "JALISCO",
+                    "Town": "ANALCO",
+                    "PostalCode": "44450"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF1_ROOT",
+            "StartDate": "2024-07-19",
+            "EndDate": "2025-07-19",
+            "Amount": 8696.6,
+            "total": 8696.6,
+            "taxAmount": 0,
+            "priceWithExpense": 8696.6,
+            "expense": 0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 724.72
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 250.0,
+                "insuredAmount": 500000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 433.0,
+                "insuredAmount": 50000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 1370.6,
+                "insuredAmount": 2500,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 1925.0,
+                "insuredAmount": 500000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 4065.0,
+                "insuredAmount": 500000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 653.0,
+                "insuredAmount": 100000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "014",
+        "CardCVV": "245",
+        "FirstName": "SOCORRO MONSERRAT",
+        "LastName": "MENESES RODRIGUEZ",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 724.72,
+        "IsRecurringPayment": "true",
+        "CardMonth": "12",
+        "CardNumber": "1234567891011789",
+        "CardYear": "25"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1701876</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000000Vzt/UTKnhzhE.CTSDCHCQ2weayn78DEFh0ENxWJTfzN8RBw</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "AUCE760920MHGSRL05",
+        "FirstName": "ELIZABETH",
+        "LastName": "AUSTRIA CORTES",
+        "RFC": "AUCE760920AW0",
+        "PhoneNumber": "5678951245",
+        "Email": "jrmendozav@desarrollo-ultrasist.com.mx",
+        "BirthDate": "1976-09-20"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "16 de Septiembre",
+            "ExternalNumber": "789",
+            "InternalNumber": "B-8",
+            "City": "Mérida",
+            "Country": "México",
+            "State": "Yucatán",
+            "Town": "Maria Luisa",
+            "PostalCode": "97199"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1999-09-18",
+                "FirstName": "Gabriel",
+                "email": "gabriel@gmail.com",
+                "KinshipExternalCode": "0075",
+                "LastName": "Sánchez López",
+                "Percentage": "50",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "16 de Septiembre",
+                    "ExternalNumber": "789",
+                    "InternalNumber": "B-8",
+                    "City": "Mérida",
+                    "Country": "México",
+                    "State": "Yucatán",
+                    "Town": "Maria Luisa",
+                    "PostalCode": "97199"
+                }
+            },
+            {
+                "BirthDate": "1999-10-26",
+                "FirstName": "Javier",
+                "email": "javier@gmail.com",
+                "KinshipExternalCode": "0011",
+                "LastName": "GONZÁLEZ GARCÍA",
+                "Percentage": "50",
+                "NumBen": "2",
+                "Address": {
+                    "Street": "Emiliano Zapata",
+                    "ExternalNumber": "14",
+                    "InternalNumber": "5",
+                    "City": "GUADALAJARA",
+                    "Country": "MEXCO",
+                    "State": "JALISCO",
+                    "Town": "ANALCO",
+                    "PostalCode": "44450"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF2_ROOT",
+            "StartDate": "2024-07-19",
+            "EndDate": "2025-07-19",
+            "Amount": 17393.2,
+            "total": 17393.2,
+            "taxAmount": 0,
+            "priceWithExpense": 17393.2,
+            "expense": 0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 17393.2
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 500.0,
+                "insuredAmount": 1000000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 866.0,
+                "insuredAmount": 100000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 2741.2,
+                "insuredAmount": 5000,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 3850.0,
+                "insuredAmount": 1000000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 8130.0,
+                "insuredAmount": 1000000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 1306.0,
+                "insuredAmount": 200000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "245",
+        "FirstName": "ELIZABETH",
+        "LastName": "AUSTRIA CORTES",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "04",
+        "Amount": 17393.2,
+        "IsRecurringPayment": "false",
+        "CardMonth": "11",
+        "CardNumber": "1234567891011785",
+        "CardYear": "28"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1701877</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000000W1V/ukvTMd04jjFWC60kXT1XGN3ZDr.MEL_YZMVxlyUA.yU</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "RXBE840506MDFSRR01",
+        "FirstName": "ERIKA PAOLA",
+        "LastName": "ROSAS BRAVO",
+        "RFC": "ROBE840506H93",
+        "PhoneNumber": "5678975874",
+        "Email": "jrmendozav@desarrollo-ultrasist.com.mx",
+        "BirthDate": "1984-05-06"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Reforma",
+            "ExternalNumber": "456",
+            "InternalNumber": "8",
+            "City": "Nezahualcóyotl",
+            "Country": "México",
+            "State": "México",
+            "Town": "Mi Retiro",
+            "PostalCode": "57465"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1997-02-12",
+                "FirstName": "Daniel",
+                "email": "daniel@gmail.com",
+                "KinshipExternalCode": "0003",
+                "LastName": "Sánchez Hernández",
+                "Percentage": "50",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "Reforma",
+                    "ExternalNumber": "456",
+                    "InternalNumber": "8",
+                    "City": "Nezahualcóyotl",
+                    "Country": "México",
+                    "State": "México",
+                    "Town": "Mi Retiro",
+                    "PostalCode": "57465"
+                }
+            },
+            {
+                "BirthDate": "1975-05-14",
+                "FirstName": "Santiago",
+                "email": "Santiago@gmail.com",
+                "KinshipExternalCode": "0006",
+                "LastName": "GARCÍA SÁNCHEZ",
+                "Percentage": "50",
+                "NumBen": "2",
+                "Address": {
+                    "Street": "Guadalupe",
+                    "ExternalNumber": "74",
+                    "InternalNumber": "2",
+                    "City": "Huaniqueo",
+                    "Country": "México",
+                    "State": "Michoacán de Ocampo",
+                    "Town": "Barrio Alto",
+                    "PostalCode": "58360"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF3_ROOT",
+            "StartDate": "2024-07-19",
+            "EndDate": "2025-07-19",
+            "Amount": 26089.8,
+            "total": 26089.8,
+            "taxAmount": 0,
+            "priceWithExpense": 26089.8,
+            "expense": 0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 2174.15
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 750.0,
+                "insuredAmount": 1500000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 1299.0,
+                "insuredAmount": 150000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 4111.8,
+                "insuredAmount": 7500,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 5775.0,
+                "insuredAmount": 1500000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 12195.0,
+                "insuredAmount": 1500000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 1959.0,
+                "insuredAmount": 300000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "132",
+        "CardCVV": "245",
+        "FirstName": "ERIKA PAOLA",
+        "LastName": "ROSAS BRAVO",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 2174.15,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "653412351234125000",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1701879</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000000W4j/pUqYbUDF1LpIfS9TueQTJ25MxI8MYgtQNvtpW1b_5Ao</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "TOLM720325HDFRPR02",
+        "FirstName": "MARTIN",
+        "LastName": "TORRES LOPEZ",
+        "RFC": "TOLM7203254Z1",
+        "PhoneNumber": "5578494745",
+        "Email": "jrmendozav@desarrollo-ultrasist.com.mx",
+        "BirthDate": "1972-03-25"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "calle 2 ",
+            "ExternalNumber": "15",
+            "InternalNumber": "12",
+            "City": "Nezahualcóyotl",
+            "Country": "México",
+            "State": "México",
+            "Town": "Evolución Poniente",
+            "PostalCode": "57708"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "2000-06-13",
+                "FirstName": "Emiliano",
+                "email": "emilio@gmail.com",
+                "KinshipExternalCode": "0012",
+                "LastName": "Rodríguez López",
+                "Percentage": "100",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "CIENCIA",
+                    "ExternalNumber": "221",
+                    "InternalNumber": "6-f",
+                    "City": "NEZAHUALCÓYOTL",
+                    "Country": "MEXCO",
+                    "State": "ESTADO DE MÉXICO",
+                    "Town": "JUÁREZ PANTITLÁN",
+                    "PostalCode": "57460"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF1_ROOT",
+            "StartDate": "2024-07-19",
+            "EndDate": "2025-07-19",
+            "Amount": 8696.6,
+            "total": 8696.6,
+            "taxAmount": 0,
+            "priceWithExpense": 8696.6,
+            "expense": 0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 8696.6
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 250.0,
+                "insuredAmount": 500000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 433.0,
+                "insuredAmount": 50000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 1370.6,
+                "insuredAmount": 2500,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 1925.0,
+                "insuredAmount": 500000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 4065.0,
+                "insuredAmount": 500000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 653.0,
+                "insuredAmount": 100000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "245",
+        "FirstName": "MARTIN",
+        "LastName": "TORRES LOPEZ",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "03",
+        "Amount": 8696.6,
+        "IsRecurringPayment": "true",
+        "CardMonth": "12",
+        "CardNumber": "1234567891011789",
+        "CardYear": "25"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1701881</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000000W7x/gj3vEK6uuIs5HdXhsXJY5EFvuoji7AYCpBTLKZqXCUc</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "EIGR731112HHGSLN00",
+        "FirstName": "RENE FERMIN",
+        "LastName": "ESPINOSA GUILLEN",
+        "RFC": "EIGR7311127IA",
+        "PhoneNumber": "5674551245",
+        "Email": "jrmendozav@desarrollo-ultrasist.com.mx",
+        "BirthDate": "1973-11-12"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "calle 3",
+            "ExternalNumber": "14",
+            "InternalNumber": "B-9",
+            "City": "Morelia",
+            "Country": "México",
+            "State": "Michoacán de Ocampo",
+            "Town": "Atapaneo",
+            "PostalCode": "58300"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1999-12-15",
+                "FirstName": "GAEL ",
+                "email": "gael@gmail.com",
+                "KinshipExternalCode": "0075",
+                "LastName": "García Martínez",
+                "Percentage": "100",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "19 TARATA CRESCENT",
+                    "ExternalNumber": "12",
+                    "InternalNumber": "1",
+                    "City": "MEXICO",
+                    "Country": "MEXICO",
+                    "State": "MEXICO",
+                    "Town": "ECATEPEC DE MORELOS",
+                    "PostalCode": "55024"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF2_ROOT",
+            "StartDate": "2024-07-19",
+            "EndDate": "2025-07-19",
+            "Amount": 17393.2,
+            "total": 17393.2,
+            "taxAmount": 0,
+            "priceWithExpense": 17393.2,
+            "expense": 0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 1449.43
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 500.0,
+                "insuredAmount": 1000000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 866.0,
+                "insuredAmount": 100000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 2741.2,
+                "insuredAmount": 5000,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 3850.0,
+                "insuredAmount": 1000000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 8130.0,
+                "insuredAmount": 1000000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 1306.0,
+                "insuredAmount": 200000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "245",
+        "FirstName": "RENE FERMIN",
+        "LastName": "ESPINOSA GUILLEN",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "03",
+        "Amount": 1449.43,
+        "IsRecurringPayment": "false",
+        "CardMonth": "11",
+        "CardNumber": "1234567891011785",
+        "CardYear": "30"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1701882</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000000WCn/DpYIkGvnFYPMkltGvK6J7zYfxJjI2u08c9fBz3ldTmo</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "COMS720209MHGRNL07",
+        "FirstName": "SILVIA",
+        "LastName": "CORDOVA MONTERRUBIO",
+        "RFC": "COMS720209BA9",
+        "PhoneNumber": "5519874512",
+        "Email": "jrmendozav@desarrollo-ultrasist.com.mx",
+        "BirthDate": "1972-09-02"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Hidalgo",
+            "ExternalNumber": "66",
+            "InternalNumber": "N-5",
+            "City": "Álvaro Obregon",
+            "Country": "México",
+            "State": "Estado de México",
+            "Town": "8 de Agosto",
+            "PostalCode": "01180"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1998-04-19",
+                "FirstName": "MIGUEL ",
+                "email": "miguel12@gmail.com",
+                "KinshipExternalCode": "0003",
+                "LastName": "Hernández García",
+                "Percentage": "100",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "MARIO",
+                    "ExternalNumber": "12-D",
+                    "InternalNumber": "11-c",
+                    "City": "CIUDAD DE MEXICO",
+                    "Country": "MEXICO",
+                    "State": "MEXICO",
+                    "Town": "IZTAPALAPA",
+                    "PostalCode": "09690"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF3_ROOT",
+            "StartDate": "2024-07-19",
+            "EndDate": "2025-07-19",
+            "Amount": 26089.8,
+            "total": 26089.8,
+            "taxAmount": 0,
+            "priceWithExpense": 26089.8,
+            "expense": 0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 26089.8
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 750.0,
+                "insuredAmount": 1500000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 1299.0,
+                "insuredAmount": 150000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 4111.8,
+                "insuredAmount": 7500,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 5775.0,
+                "insuredAmount": 1500000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 12195.0,
+                "insuredAmount": 1500000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 1959.0,
+                "insuredAmount": 300000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "245",
+        "FirstName": "SILVIA",
+        "LastName": "CORDOVA MONTERRUBIO",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "03",
+        "Amount": 26089.8,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "653412351234125000",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1701884</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000000WG1/UTQNNJhqdc03DEC.GDUEJdXxghq7Xe4.vjJeN3iAIr8</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "CUJO771209MDFTML05",
+        "FirstName": "OLGA VANESSA",
+        "LastName": "CUATEPOTZO JIMENEZ",
+        "RFC": "CUJO771209714",
+        "PhoneNumber": "5678494525",
+        "Email": "jrmendozav@desarrollo-ultrasist.com.mx",
+        "BirthDate": "1977-12-09"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Morelos",
+            "ExternalNumber": "511",
+            "InternalNumber": "J-5",
+            "City": "San Nicolás de los Garza",
+            "Country": "México",
+            "State": "Nuevo León",
+            "Town": "El Agarron",
+            "PostalCode": "66488"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1988-08-11",
+                "FirstName": "ANGEL",
+                "email": "angel23@gmail.com",
+                "KinshipExternalCode": "0012",
+                "LastName": "López Pérez",
+                "Percentage": "50",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "Insurgentes",
+                    "ExternalNumber": "452",
+                    "InternalNumber": "A-8",
+                    "City": "San Nicolás de los Garza",
+                    "Country": "México",
+                    "State": "Nuevo León",
+                    "Town": "El Agarron",
+                    "PostalCode": "66488"
+                }
+            },
+            {
+                "BirthDate": "1995-08-20",
+                "FirstName": "Matías",
+                "email": "carlos@gmail.com",
+                "KinshipExternalCode": "0006",
+                "LastName": "Sánchez Sánchez",
+                "Percentage": "50",
+                "NumBen": "2",
+                "Address": {
+                    "Street": "Lázaro Cárdenas",
+                    "ExternalNumber": "645",
+                    "InternalNumber": "19",
+                    "City": "GUADALAJARA",
+                    "Country": "MEXCO",
+                    "State": "JALISCO",
+                    "Town": "ANALCO",
+                    "PostalCode": "44450"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF1_ROOT",
+            "StartDate": "2024-07-19",
+            "EndDate": "2025-07-19",
+            "Amount": 8696.6,
+            "total": 8696.6,
+            "taxAmount": 0,
+            "priceWithExpense": 8696.6,
+            "expense": 0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 724.72
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 250.0,
+                "insuredAmount": 500000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 433.0,
+                "insuredAmount": 50000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 1370.6,
+                "insuredAmount": 2500,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 1925.0,
+                "insuredAmount": 500000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 4065.0,
+                "insuredAmount": 500000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 653.0,
+                "insuredAmount": 100000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "014",
+        "CardCVV": "245",
+        "FirstName": "OLGA VANESSA",
+        "LastName": "CUATEPOTZO JIMENEZ",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 724.72,
+        "IsRecurringPayment": "true",
+        "CardMonth": "12",
+        "CardNumber": "1234567891011789",
+        "CardYear": "25"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1701886</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000000WJF/OQ__Y71LfcdC1BMF_4WmfSdS8Gx38n.UttjAqXPj4i4</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "CULM811225MPLRNR07",
+        "FirstName": "MARLENE",
+        "LastName": "DE LA CRUZ LUNA",
+        "RFC": "CULM811225976",
+        "PhoneNumber": "5674511245",
+        "Email": "jrmendozav@desarrollo-ultrasist.com.mx",
+        "BirthDate": "1981-12-25"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Benito Juárez",
+            "ExternalNumber": "9",
+            "InternalNumber": "452",
+            "City": "Mérida",
+            "Country": "México",
+            "State": "Yucatán",
+            "Town": "Maria Luisa",
+            "PostalCode": "97199"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1999-09-18",
+                "FirstName": "SEBASTIAN",
+                "email": "sebas75@gmail.com",
+                "KinshipExternalCode": "0075",
+                "LastName": "Sánchez López",
+                "Percentage": "50",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "16 de Septiembre",
+                    "ExternalNumber": "789",
+                    "InternalNumber": "B-8",
+                    "City": "Mérida",
+                    "Country": "México",
+                    "State": "Yucatán",
+                    "Town": "Maria Luisa",
+                    "PostalCode": "97199"
+                }
+            },
+            {
+                "BirthDate": "1988-10-26",
+                "FirstName": "Emiliano",
+                "email": "javier@gmail.com",
+                "KinshipExternalCode": "0011",
+                "LastName": "Rodríguez García",
+                "Percentage": "50",
+                "NumBen": "2",
+                "Address": {
+                    "Street": "Zaragoza",
+                    "ExternalNumber": "230",
+                    "InternalNumber": "52",
+                    "City": "GUADALAJARA",
+                    "Country": "MEXCO",
+                    "State": "JALISCO",
+                    "Town": "ANALCO",
+                    "PostalCode": "44450"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF2_ROOT",
+            "StartDate": "2024-07-19",
+            "EndDate": "2025-07-19",
+            "Amount": 17393.2,
+            "total": 17393.2,
+            "taxAmount": 0,
+            "priceWithExpense": 17393.2,
+            "expense": 0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 17393.2
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 500.0,
+                "insuredAmount": 1000000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 866.0,
+                "insuredAmount": 100000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 2741.2,
+                "insuredAmount": 5000,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 3850.0,
+                "insuredAmount": 1000000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 8130.0,
+                "insuredAmount": 1000000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 1306.0,
+                "insuredAmount": 200000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "245",
+        "FirstName": "MARLENE",
+        "LastName": "DE LA CRUZ LUNA",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "04",
+        "Amount": 17393.2,
+        "IsRecurringPayment": "false",
+        "CardMonth": "11",
+        "CardNumber": "1234567891011785",
+        "CardYear": "28"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1701887</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000000WKr/BXAXLxhcTzwl4UzOca8jFj.iOhRuxvaLRrogh5KBoXA</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "DOHF631114HHGRRC03",
+        "FirstName": "FACUNDO",
+        "LastName": "DOROTEO HERNANDEZ",
+        "RFC": "DOHF631114IT1",
+        "PhoneNumber": "5678979874",
+        "Email": "jrmendozav@desarrollo-ultrasist.com.mx",
+        "BirthDate": "1963-11-14"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Emiliano ",
+            "ExternalNumber": "45",
+            "InternalNumber": "12",
+            "City": "Nezahualcóyotl",
+            "Country": "México",
+            "State": "México",
+            "Town": "Mi Retiro",
+            "PostalCode": "57465"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1997-02-12",
+                "FirstName": "XIMENA",
+                "email": "xime32@gmail.com",
+                "KinshipExternalCode": "0003",
+                "LastName": "Sánchez Hernández",
+                "Percentage": "50",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "Reforma",
+                    "ExternalNumber": "456",
+                    "InternalNumber": "8",
+                    "City": "Nezahualcóyotl",
+                    "Country": "México",
+                    "State": "México",
+                    "Town": "Mi Retiro",
+                    "PostalCode": "57465"
+                }
+            },
+            {
+                "BirthDate": "1975-05-14",
+                "FirstName": "Diego",
+                "email": "Santiago@gmail.com",
+                "KinshipExternalCode": "0006",
+                "LastName": "López Pérez",
+                "Percentage": "50",
+                "NumBen": "2",
+                "Address": {
+                    "Street": "Independencia",
+                    "ExternalNumber": "145",
+                    "InternalNumber": "66",
+                    "City": "Huaniqueo",
+                    "Country": "México",
+                    "State": "Michoacán de Ocampo",
+                    "Town": "Barrio Alto",
+                    "PostalCode": "58360"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF3_ROOT",
+            "StartDate": "2024-07-19",
+            "EndDate": "2025-07-19",
+            "Amount": 26089.8,
+            "total": 26089.8,
+            "taxAmount": 0,
+            "priceWithExpense": 26089.8,
+            "expense": 0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 2174.15
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 750.0,
+                "insuredAmount": 1500000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 1299.0,
+                "insuredAmount": 150000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 4111.8,
+                "insuredAmount": 7500,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 5775.0,
+                "insuredAmount": 1500000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 12195.0,
+                "insuredAmount": 1500000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 1959.0,
+                "insuredAmount": 300000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "132",
+        "CardCVV": "245",
+        "FirstName": "FACUNDO",
+        "LastName": "DOROTEO HERNANDEZ",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 2174.15,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "653412351234125000",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1701889</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000000WMU/n7QDKko9L8KC.GzVUixBqyLjDPjDXA9fk7o3Sg_9st0</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "DOHF660129HVZMRR08",
+        "FirstName": "FRANCISCO",
+        "LastName": "DOMINGUEZ HERNANDEZ",
+        "RFC": "DOHF660129N90",
+        "PhoneNumber": "5578497854",
+        "Email": "jrmendozav@desarrollo-ultrasist.com.mx",
+        "BirthDate": "1982-06-21"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Madero",
+            "ExternalNumber": "41",
+            "InternalNumber": "41",
+            "City": "Nezahualcóyotl",
+            "Country": "México",
+            "State": "México",
+            "Town": "Evolución Poniente",
+            "PostalCode": "57708"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "2000-06-13",
+                "FirstName": "SOFIA",
+                "email": "sofia@gmail.com",
+                "KinshipExternalCode": "0012",
+                "LastName": "Rodríguez López",
+                "Percentage": "100",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "CIENCIA",
+                    "ExternalNumber": "221",
+                    "InternalNumber": "6-f",
+                    "City": "NEZAHUALCÓYOTL",
+                    "Country": "MEXCO",
+                    "State": "ESTADO DE MÉXICO",
+                    "Town": "JUÁREZ PANTITLÁN",
+                    "PostalCode": "57460"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF1_ROOT",
+            "StartDate": "2024-07-19",
+            "EndDate": "2025-07-19",
+            "Amount": 8696.6,
+            "total": 8696.6,
+            "taxAmount": 0,
+            "priceWithExpense": 8696.6,
+            "expense": 0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 8696.6
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 250.0,
+                "insuredAmount": 500000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 433.0,
+                "insuredAmount": 50000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 1370.6,
+                "insuredAmount": 2500,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 1925.0,
+                "insuredAmount": 500000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 4065.0,
+                "insuredAmount": 500000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 653.0,
+                "insuredAmount": 100000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "245",
+        "FirstName": "FRANCISCO",
+        "LastName": "DOMINGUEZ HERNANDEZ",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "03",
+        "Amount": 8696.6,
+        "IsRecurringPayment": "true",
+        "CardMonth": "12",
+        "CardNumber": "1234567891011789",
+        "CardYear": "25"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1701890</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000000WO5/baEC6CujZ1LUP4mhebCq2Q2m1nrQyqRQ6z6smxDd5JQ</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "EAVA701026HDFSLN02",
+        "FirstName": "JOSE ANTONIO",
+        "LastName": "ESTRADA VALLEJO",
+        "RFC": "EAVA701026SH1",
+        "PhoneNumber": "5674557845",
+        "Email": "jrmendozav@desarrollo-ultrasist.com.mx",
+        "BirthDate": "1970-10-26"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Miguel Hidalgo",
+            "ExternalNumber": "500",
+            "InternalNumber": "12",
+            "City": "Morelia",
+            "Country": "México",
+            "State": "Michoacán de Ocampo",
+            "Town": "Atapaneo",
+            "PostalCode": "58300"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1999-12-15",
+                "FirstName": "VALENTINA ",
+                "email": "vale12@gmail.com",
+                "KinshipExternalCode": "0075",
+                "LastName": "García Martínez",
+                "Percentage": "100",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "19 TARATA CRESCENT",
+                    "ExternalNumber": "12",
+                    "InternalNumber": "1",
+                    "City": "MEXICO",
+                    "Country": "MEXICO",
+                    "State": "MEXICO",
+                    "Town": "ECATEPEC DE MORELOS",
+                    "PostalCode": "55024"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF2_ROOT",
+            "StartDate": "2024-07-19",
+            "EndDate": "2025-07-19",
+            "Amount": 17393.2,
+            "total": 17393.2,
+            "taxAmount": 0,
+            "priceWithExpense": 17393.2,
+            "expense": 0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 1449.43
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 500.0,
+                "insuredAmount": 1000000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 866.0,
+                "insuredAmount": 100000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 2741.2,
+                "insuredAmount": 5000,
+                "name": "INDEMNIZACIÓN DIARIA POR HOSPITALIZACIÓN"
+            },
+            {
+                "code": "VI33",
+                "price": 3850.0,
+                "insuredAmount": 1000000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 8130.0,
+                "insuredAmount": 1000000.0,
+                "name": "FALLECIMIENTO"
+            },
+            {
+                "code": "VI95",
+                "price": 1306.0,
+                "insuredAmount": 200000.0,
+                "name": "ENFERMEDADES GRAVES"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "245",
+        "FirstName": "JOSE ANTONIO",
+        "LastName": "ESTRADA VALLEJO",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "03",
+        "Amount": 1449.43,
+        "IsRecurringPayment": "false",
+        "CardMonth": "11",
+        "CardNumber": "1234567891011785",
+        "CardYear": "30"
+    }
+}</t>
+  </si>
+  <si>
+    <t>1701894</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000000Waz/zfL8aQGwv0QFvzli_pz5XDKr2TUa5pnIyXWnFjJ8UMA</t>
+  </si>
+  <si>
+    <t>1701895</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000000Wcb/RuqSpWYYu1WsR8UdNPnXfGzM44yyP4NtDKedsHMcCS4</t>
+  </si>
+  <si>
+    <t>1701896</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000000WeD/zRwm5L30jzyPDwXkHsrxT2gpews9WKpQS9OkFzbLo74</t>
+  </si>
+  <si>
+    <t>1701897</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--qa.sandbox.my.salesforce.com/sfc/p/DG000009TCI1/a/dl0000000Wfp/PXfYlt1QLO8pg308WXo5hWb1.VCmXf_Iv_NkyA.VSvQ</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--preprod.sandbox.my.salesforce.com/sfc/p/DI0000008jIo/a/WI000000BzwD/Lx343osVLUyVaE5bbqPvfEH4EqWSgdmKb5hfJfik6eY</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "CULM811225MPLRNR07",
+        "FirstName": "MARLENE",
+        "LastName": "DE LA CRUZ LUNA",
+        "RFC": "CULM811225976",
+        "PhoneNumber": "5674511245",
+        "Email": "jrmendozav@desarrollo-ultrasist.com.mx",
+        "BirthDate": "1981-12-25"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Benito Juárez",
+            "ExternalNumber": "9",
+            "InternalNumber": "452",
+            "City": "Mérida",
+            "Country": "México",
+            "State": "Yucatán",
+            "Town": "Maria Luisa",
+            "PostalCode": "97199"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1999-09-18",
+                "FirstName": "SEBASTIAN",
+                "email": "sebas75@gmail.com",
+                "KinshipExternalCode": "0075",
+                "LastName": "Sánchez López",
+                "Percentage": "50",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "16 de Septiembre",
+                    "ExternalNumber": "789",
+                    "InternalNumber": "B-8",
+                    "City": "Mérida",
+                    "Country": "México",
+                    "State": "Yucatán",
+                    "Town": "Maria Luisa",
+                    "PostalCode": "97199"
+                }
+            },
+            {
+                "BirthDate": "1988-10-26",
+                "FirstName": "Emiliano",
+                "email": "javier@gmail.com",
+                "KinshipExternalCode": "0011",
+                "LastName": "Rodríguez García",
+                "Percentage": "50",
+                "NumBen": "2",
+                "Address": {
+                    "Street": "Zaragoza",
+                    "ExternalNumber": "230",
+                    "InternalNumber": "52",
+                    "City": "GUADALAJARA",
+                    "Country": "MEXCO",
+                    "State": "JALISCO",
+                    "Town": "ANALCO",
+                    "PostalCode": "44450"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF2_ROOT",
+            "StartDate": "2024-07-19",
+            "EndDate": "2025-07-19",
+            "Amount": 17393.2,
+            "total": 17393.2,
+            "taxAmount": 0,
+            "priceWithExpense": 17393.2,
+            "expense": 0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 17393.2
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 500.0,
+                "insuredAmount": 1000000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 866.0,
+                "insuredAmount": 100000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 2741.2,
+                "insuredAmount": 5000,
+                "name": "Indemnización Diaria por Hospitalización"
+            },
+            {
+                "code": "VI33",
+                "price": 3850.0,
+                "insuredAmount": 1000000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 8130.0,
+                "insuredAmount": 1000000.0,
+                "name": "Fallecimiento"
+            },
+            {
+                "code": "VI95",
+                "price": 1306.0,
+                "insuredAmount": 200000.0,
+                "name": "Enfermedades Graves"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "245",
+        "FirstName": "MARLENE",
+        "LastName": "DE LA CRUZ LUNA",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "04",
+        "Amount": 17393.2,
+        "IsRecurringPayment": "false",
+        "CardMonth": "11",
+        "CardNumber": "1234567891011785",
+        "CardYear": "28"
+    }
+}</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--preprod.sandbox.my.salesforce.com/sfc/p/DI0000008jIo/a/WI000000Bzxp/ZF1Zgl9j2LmdGn_m4_LS0gkL.3aELlR_R3AMWNdMUHA</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "DOHF631114HHGRRC03",
+        "FirstName": "FACUNDO",
+        "LastName": "DOROTEO HERNANDEZ",
+        "RFC": "DOHF631114IT1",
+        "PhoneNumber": "5678979874",
+        "Email": "jrmendozav@desarrollo-ultrasist.com.mx",
+        "BirthDate": "1963-11-14"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Emiliano ",
+            "ExternalNumber": "45",
+            "InternalNumber": "12",
+            "City": "Nezahualcóyotl",
+            "Country": "México",
+            "State": "México",
+            "Town": "Mi Retiro",
+            "PostalCode": "57465"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1997-02-12",
+                "FirstName": "XIMENA",
+                "email": "xime32@gmail.com",
+                "KinshipExternalCode": "0003",
+                "LastName": "Sánchez Hernández",
+                "Percentage": "50",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "Reforma",
+                    "ExternalNumber": "456",
+                    "InternalNumber": "8",
+                    "City": "Nezahualcóyotl",
+                    "Country": "México",
+                    "State": "México",
+                    "Town": "Mi Retiro",
+                    "PostalCode": "57465"
+                }
+            },
+            {
+                "BirthDate": "1975-05-14",
+                "FirstName": "Diego",
+                "email": "Santiago@gmail.com",
+                "KinshipExternalCode": "0006",
+                "LastName": "López Pérez",
+                "Percentage": "50",
+                "NumBen": "2",
+                "Address": {
+                    "Street": "Independencia",
+                    "ExternalNumber": "145",
+                    "InternalNumber": "66",
+                    "City": "Huaniqueo",
+                    "Country": "México",
+                    "State": "Michoacán de Ocampo",
+                    "Town": "Barrio Alto",
+                    "PostalCode": "58360"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF3_ROOT",
+            "StartDate": "2024-07-19",
+            "EndDate": "2025-07-19",
+            "Amount": 26089.8,
+            "total": 26089.8,
+            "taxAmount": 0,
+            "priceWithExpense": 26089.8,
+            "expense": 0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 2174.15
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 750.0,
+                "insuredAmount": 1500000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 1299.0,
+                "insuredAmount": 150000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 4111.8,
+                "insuredAmount": 7500,
+                "name": "Indemnización Diaria por Hospitalización"
+            },
+            {
+                "code": "VI33",
+                "price": 5775.0,
+                "insuredAmount": 1500000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 12195.0,
+                "insuredAmount": 1500000.0,
+                "name": "Fallecimiento"
+            },
+            {
+                "code": "VI95",
+                "price": 1959.0,
+                "insuredAmount": 300000.0,
+                "name": "Enfermedades Graves"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "132",
+        "CardCVV": "245",
+        "FirstName": "FACUNDO",
+        "LastName": "DOROTEO HERNANDEZ",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "04",
+        "Amount": 2174.15,
+        "IsRecurringPayment": "false",
+        "CardMonth": "12",
+        "CardNumber": "653412351234125000",
+        "CardYear": "26"
+    }
+}</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--preprod.sandbox.my.salesforce.com/sfc/p/DI0000008jIo/a/WI000000BzzR/Dd9X4EUT0n8N6N4obCRVbUjliWxqbtLQYkzSJep8Bzo</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "DOHF660129HVZMRR08",
+        "FirstName": "FRANCISCO",
+        "LastName": "DOMINGUEZ HERNANDEZ",
+        "RFC": "DOHF660129N90",
+        "PhoneNumber": "5578497854",
+        "Email": "jrmendozav@desarrollo-ultrasist.com.mx",
+        "BirthDate": "1966-01-29"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Madero",
+            "ExternalNumber": "41",
+            "InternalNumber": "41",
+            "City": "Nezahualcóyotl",
+            "Country": "México",
+            "State": "México",
+            "Town": "Evolución Poniente",
+            "PostalCode": "57708"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "2000-06-13",
+                "FirstName": "SOFIA",
+                "email": "sofia@gmail.com",
+                "KinshipExternalCode": "0012",
+                "LastName": "Rodríguez López",
+                "Percentage": "100",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "CIENCIA",
+                    "ExternalNumber": "221",
+                    "InternalNumber": "6-f",
+                    "City": "NEZAHUALCÓYOTL",
+                    "Country": "MEXCO",
+                    "State": "ESTADO DE MÉXICO",
+                    "Town": "JUÁREZ PANTITLÁN",
+                    "PostalCode": "57460"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF1_ROOT",
+            "StartDate": "2024-07-19",
+            "EndDate": "2025-07-19",
+            "Amount": 8696.6,
+            "total": 8696.6,
+            "taxAmount": 0,
+            "priceWithExpense": 8696.6,
+            "expense": 0,
+            "numInstallments": "001",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 8696.6
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 250.0,
+                "insuredAmount": 500000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 433.0,
+                "insuredAmount": 50000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 1370.6,
+                "insuredAmount": 2500,
+                "name": "Indemnización Diaria por Hospitalización"
+            },
+            {
+                "code": "VI33",
+                "price": 1925.0,
+                "insuredAmount": 500000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 4065.0,
+                "insuredAmount": 500000.0,
+                "name": "Fallecimiento"
+            },
+            {
+                "code": "VI95",
+                "price": 653.0,
+                "insuredAmount": 100000.0,
+                "name": "Enfermedades Graves"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "245",
+        "FirstName": "FRANCISCO",
+        "LastName": "DOMINGUEZ HERNANDEZ",
+        "PaymentPeriod": "001",
+        "TypeOfCard": "03",
+        "Amount": 8696.6,
+        "IsRecurringPayment": "true",
+        "CardMonth": "12",
+        "CardNumber": "1234567891011789",
+        "CardYear": "25"
+    }
+}</t>
+  </si>
+  <si>
+    <t>https://segbanortesfi--preprod.sandbox.my.salesforce.com/sfc/p/DI0000008jIo/a/WI000000C013/WwQB_byvTP72GhNX7XmA_20y2iTfKqOonZrG1E6Neso</t>
+  </si>
+  <si>
+    <t>{
+    "Step1": {
+        "CURP": "EAVA701026HDFSLN02",
+        "FirstName": "JOSE ANTONIO",
+        "LastName": "ESTRADA VALLEJO",
+        "RFC": "EAVA701026SH1",
+        "PhoneNumber": "5674557845",
+        "Email": "jrmendozav@desarrollo-ultrasist.com.mx",
+        "BirthDate": "1970-10-26"
+    },
+    "Step2": {
+        "Address": {
+            "Street": "Miguel Hidalgo",
+            "ExternalNumber": "500",
+            "InternalNumber": "12",
+            "City": "Morelia",
+            "Country": "México",
+            "State": "Michoacán de Ocampo",
+            "Town": "Atapaneo",
+            "PostalCode": "58300"
+        }
+    },
+    "Step3": {
+        "BenificiaryInformation": [
+            {
+                "BirthDate": "1999-12-15",
+                "FirstName": "VALENTINA ",
+                "email": "vale12@gmail.com",
+                "KinshipExternalCode": "0075",
+                "LastName": "García Martínez",
+                "Percentage": "100",
+                "NumBen": "1",
+                "Address": {
+                    "Street": "19 TARATA CRESCENT",
+                    "ExternalNumber": "12",
+                    "InternalNumber": "1",
+                    "City": "MEXICO",
+                    "Country": "MEXICO",
+                    "State": "MEXICO",
+                    "Town": "ECATEPEC DE MORELOS",
+                    "PostalCode": "55024"
+                }
+            }
+        ]
+    },
+    "Step4": {
+        "Package": {
+            "branch": "VI47",
+            "Code": "SEGURO_VI_APF2_ROOT",
+            "StartDate": "2024-07-19",
+            "EndDate": "2025-07-19",
+            "Amount": 17393.2,
+            "total": 17393.2,
+            "taxAmount": 0,
+            "priceWithExpense": 17393.2,
+            "expense": 0,
+            "numInstallments": "012",
+            "expenseOnFirstInstallment": false,
+            "installmentAmount": 1449.43
+        },
+        "PackageCoverage": [
+            {
+                "code": "VI10",
+                "price": 500.0,
+                "insuredAmount": 1000000.0,
+                "name": "Muerte Accidental"
+            },
+            {
+                "code": "VI58",
+                "price": 866.0,
+                "insuredAmount": 100000,
+                "name": "Indemnización Hospitalaria por Accidente"
+            },
+            {
+                "code": "VI67",
+                "price": 2741.2,
+                "insuredAmount": 5000,
+                "name": "Indemnización Diaria por Hospitalización"
+            },
+            {
+                "code": "VI33",
+                "price": 3850.0,
+                "insuredAmount": 1000000,
+                "name": "Incapacidad Total o Incapacidad Permanente Total o Invalidez"
+            },
+            {
+                "code": "VI00",
+                "price": 8130.0,
+                "insuredAmount": 1000000.0,
+                "name": "Fallecimiento"
+            },
+            {
+                "code": "VI95",
+                "price": 1306.0,
+                "insuredAmount": 200000.0,
+                "name": "Enfermedades Graves"
+            }
+        ]
+    },
+    "Step5": {
+        "Bank": "012",
+        "CardCVV": "245",
+        "FirstName": "JOSE ANTONIO",
+        "LastName": "ESTRADA VALLEJO",
+        "PaymentPeriod": "012",
+        "TypeOfCard": "03",
+        "Amount": 1449.43,
+        "IsRecurringPayment": "false",
+        "CardMonth": "11",
+        "CardNumber": "1234567891011785",
+        "CardYear": "30"
+    }
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -14400,27 +16501,27 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hipervínculo" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -14437,10 +16538,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -14475,7 +16576,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -14527,7 +16628,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -14638,21 +16739,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -14669,7 +16770,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -14721,18 +16822,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12ED57B9-CEFE-4C0F-9129-F0B71081E81C}">
-  <dimension ref="A1:C288"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12ED57B9-CEFE-4C0F-9129-F0B71081E81C}">
+  <dimension ref="A1:D308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="A288" sqref="A288"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="A304" sqref="A304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17905,15 +20006,235 @@
         <v>16</v>
       </c>
     </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>685</v>
+      </c>
+      <c r="B289" t="s">
+        <v>4</v>
+      </c>
+      <c r="C289" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>688</v>
+      </c>
+      <c r="B290" t="s">
+        <v>4</v>
+      </c>
+      <c r="C290" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>691</v>
+      </c>
+      <c r="B291" t="s">
+        <v>4</v>
+      </c>
+      <c r="C291" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>694</v>
+      </c>
+      <c r="B292" t="s">
+        <v>4</v>
+      </c>
+      <c r="C292" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>697</v>
+      </c>
+      <c r="B293" t="s">
+        <v>4</v>
+      </c>
+      <c r="C293" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>700</v>
+      </c>
+      <c r="B294" t="s">
+        <v>4</v>
+      </c>
+      <c r="C294" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>703</v>
+      </c>
+      <c r="B295" t="s">
+        <v>4</v>
+      </c>
+      <c r="C295" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>706</v>
+      </c>
+      <c r="B296" t="s">
+        <v>4</v>
+      </c>
+      <c r="C296" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>709</v>
+      </c>
+      <c r="B297" t="s">
+        <v>4</v>
+      </c>
+      <c r="C297" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>712</v>
+      </c>
+      <c r="B298" t="s">
+        <v>4</v>
+      </c>
+      <c r="C298" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>715</v>
+      </c>
+      <c r="B299" t="s">
+        <v>4</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A300" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B300" t="s">
+        <v>4</v>
+      </c>
+      <c r="C300" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>721</v>
+      </c>
+      <c r="B301" t="s">
+        <v>4</v>
+      </c>
+      <c r="C301" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>723</v>
+      </c>
+      <c r="B302" t="s">
+        <v>4</v>
+      </c>
+      <c r="C302" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>725</v>
+      </c>
+      <c r="B303" t="s">
+        <v>4</v>
+      </c>
+      <c r="C303" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A304" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B304" t="s">
+        <v>4</v>
+      </c>
+      <c r="C304" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>277</v>
+      </c>
+      <c r="B305" t="s">
+        <v>4</v>
+      </c>
+      <c r="C305" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>278</v>
+      </c>
+      <c r="B306" t="s">
+        <v>4</v>
+      </c>
+      <c r="C306" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>279</v>
+      </c>
+      <c r="B307" t="s">
+        <v>4</v>
+      </c>
+      <c r="C307" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>280</v>
+      </c>
+      <c r="B308" t="s">
+        <v>4</v>
+      </c>
+      <c r="C308" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0633685C-9242-4B86-A741-D6AE35AC76FE}">
-  <dimension ref="A1:C86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0633685C-9242-4B86-A741-D6AE35AC76FE}">
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="D85" sqref="D85"/>
@@ -18868,13 +21189,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123A7BC4-C1F6-496F-93BD-5C434C3B1130}">
-  <dimension ref="A1:C123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123A7BC4-C1F6-496F-93BD-5C434C3B1130}">
+  <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="A111" sqref="A111"/>
@@ -20236,22 +22557,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D81D4E2-87CB-42D0-9159-220D39FAA5E4}">
-  <dimension ref="A1:D129"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D81D4E2-87CB-42D0-9159-220D39FAA5E4}">
+  <dimension ref="A1:E149"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+    <sheetView topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.7265625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.7265625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -22009,19 +24330,299 @@
         <v>221</v>
       </c>
     </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>220</v>
+      </c>
+      <c r="B130" t="s">
+        <v>686</v>
+      </c>
+      <c r="C130" t="s">
+        <v>687</v>
+      </c>
+      <c r="D130" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>240</v>
+      </c>
+      <c r="B131" t="s">
+        <v>689</v>
+      </c>
+      <c r="C131" t="s">
+        <v>690</v>
+      </c>
+      <c r="D131" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>243</v>
+      </c>
+      <c r="B132" t="s">
+        <v>692</v>
+      </c>
+      <c r="C132" t="s">
+        <v>693</v>
+      </c>
+      <c r="D132" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>220</v>
+      </c>
+      <c r="B133" t="s">
+        <v>695</v>
+      </c>
+      <c r="C133" t="s">
+        <v>696</v>
+      </c>
+      <c r="D133" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>240</v>
+      </c>
+      <c r="B134" t="s">
+        <v>698</v>
+      </c>
+      <c r="C134" t="s">
+        <v>699</v>
+      </c>
+      <c r="D134" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>243</v>
+      </c>
+      <c r="B135" t="s">
+        <v>701</v>
+      </c>
+      <c r="C135" t="s">
+        <v>702</v>
+      </c>
+      <c r="D135" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>220</v>
+      </c>
+      <c r="B136" t="s">
+        <v>704</v>
+      </c>
+      <c r="C136" t="s">
+        <v>705</v>
+      </c>
+      <c r="D136" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>240</v>
+      </c>
+      <c r="B137" t="s">
+        <v>707</v>
+      </c>
+      <c r="C137" t="s">
+        <v>708</v>
+      </c>
+      <c r="D137" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>243</v>
+      </c>
+      <c r="B138" t="s">
+        <v>710</v>
+      </c>
+      <c r="C138" t="s">
+        <v>711</v>
+      </c>
+      <c r="D138" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>220</v>
+      </c>
+      <c r="B139" t="s">
+        <v>713</v>
+      </c>
+      <c r="C139" t="s">
+        <v>714</v>
+      </c>
+      <c r="D139" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>240</v>
+      </c>
+      <c r="B140" t="s">
+        <v>716</v>
+      </c>
+      <c r="C140" t="s">
+        <v>717</v>
+      </c>
+      <c r="D140" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B141" t="s">
+        <v>719</v>
+      </c>
+      <c r="C141" t="s">
+        <v>720</v>
+      </c>
+      <c r="D141" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>220</v>
+      </c>
+      <c r="B142" t="s">
+        <v>722</v>
+      </c>
+      <c r="C142" t="s">
+        <v>687</v>
+      </c>
+      <c r="D142" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>240</v>
+      </c>
+      <c r="B143" t="s">
+        <v>724</v>
+      </c>
+      <c r="C143" t="s">
+        <v>690</v>
+      </c>
+      <c r="D143" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>243</v>
+      </c>
+      <c r="B144" t="s">
+        <v>726</v>
+      </c>
+      <c r="C144" t="s">
+        <v>693</v>
+      </c>
+      <c r="D144" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B145" t="s">
+        <v>728</v>
+      </c>
+      <c r="C145" t="s">
+        <v>696</v>
+      </c>
+      <c r="D145" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>243</v>
+      </c>
+      <c r="B146" t="s">
+        <v>729</v>
+      </c>
+      <c r="C146" t="s">
+        <v>730</v>
+      </c>
+      <c r="D146" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>220</v>
+      </c>
+      <c r="B147" t="s">
+        <v>731</v>
+      </c>
+      <c r="C147" t="s">
+        <v>732</v>
+      </c>
+      <c r="D147" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>240</v>
+      </c>
+      <c r="B148" t="s">
+        <v>733</v>
+      </c>
+      <c r="C148" t="s">
+        <v>734</v>
+      </c>
+      <c r="D148" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>243</v>
+      </c>
+      <c r="B149" t="s">
+        <v>735</v>
+      </c>
+      <c r="C149" t="s">
+        <v>736</v>
+      </c>
+      <c r="D149" t="s">
+        <v>221</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{A4AC4C7C-BB63-45F4-BD41-0BD4AE14501D}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{269B6DC2-EFEE-402B-8971-4CC97AE8EE6A}"/>
+    <hyperlink r:id="rId1" ref="B2" xr:uid="{A4AC4C7C-BB63-45F4-BD41-0BD4AE14501D}"/>
+    <hyperlink r:id="rId2" ref="B7" xr:uid="{269B6DC2-EFEE-402B-8971-4CC97AE8EE6A}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFCA402-A7C2-4FBA-98A9-78646D072615}">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFCA402-A7C2-4FBA-98A9-78646D072615}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -22318,13 +24919,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C462262-D32E-4A6B-9410-964D57826A49}">
-  <dimension ref="A1:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C462262-D32E-4A6B-9410-964D57826A49}">
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F21" sqref="F21:F30"/>
@@ -22332,7 +24933,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="16.6328125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="16.6328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -22868,8 +25469,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C28" r:id="rId1" location="DG000009TCI1/a/dl0000000L9J/pFTU6SuDKUb8UX5jxm7R6koWLH0SlwFaO.3Jr9NOHGk" xr:uid="{D0DD3569-A0EA-4BD8-B4B1-67B318B47677}"/>
+    <hyperlink location="DG000009TCI1/a/dl0000000L9J/pFTU6SuDKUb8UX5jxm7R6koWLH0SlwFaO.3Jr9NOHGk" r:id="rId1" ref="C28" xr:uid="{D0DD3569-A0EA-4BD8-B4B1-67B318B47677}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>